--- a/20200802AddOn不具合・要望リスト.xlsx
+++ b/20200802AddOn不具合・要望リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmoto\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9838F8B-247F-4D79-9312-3A1950C0CBD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E814295B-985B-4A38-BD50-04E364D66436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{70C79CD5-004D-49F0-9018-9F8975137D63}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{70C79CD5-004D-49F0-9018-9F8975137D63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2198,7 +2198,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2231,6 +2231,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4192,8 +4195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B281642-D6D1-4F23-9E47-EDA12FAAB729}">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4279,7 +4282,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="A7" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B7">
@@ -4312,7 +4315,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+      <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B12">
@@ -4344,7 +4347,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+      <c r="A17" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B17">
@@ -4376,7 +4379,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+      <c r="A22" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B22">
@@ -4390,7 +4393,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+      <c r="A24" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B24">
@@ -4479,7 +4482,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+      <c r="A39" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B39">
@@ -4493,7 +4496,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
+      <c r="A41" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B41">
